--- a/Source 4/structured/apple.xlsx
+++ b/Source 4/structured/apple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>AS NUMBER</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>62.115.112.0 - 62.115.127.255</t>
+  </si>
+  <si>
+    <t>AS714</t>
   </si>
   <si>
     <t>17.253.144.10</t>
@@ -81,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +113,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -133,13 +149,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -467,7 +483,7 @@
     <col min="6" max="6" style="6" width="24.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -485,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -503,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -523,7 +539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -543,24 +559,24 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
